--- a/data/trans_bre/IP21B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP21B-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,73</t>
+          <t>12,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-15,26</t>
+          <t>-7,78</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,6</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-21,36</t>
+          <t>34,42</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>45,87%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-21,79%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>40,07%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-45,16%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-47,17%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,63</t>
+          <t>-27,23; 61,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-44,81; 0,0</t>
+          <t>-42,53; 32,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,58; 23,53</t>
+          <t>-53,19; 79,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-73,53; 45,03</t>
+          <t>0,0; 80,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,45; 259,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,56</t>
+          <t>25,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,78</t>
+          <t>-15,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,19</t>
+          <t>-10,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>34,42</t>
+          <t>-21,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>45,87%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-21,79%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>40,07%</t>
+          <t>-45,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-47,17%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 61,45</t>
+          <t>0,0; 76,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-42,53; 32,96</t>
+          <t>-44,81; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-53,19; 79,29</t>
+          <t>-40,58; 23,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,5</t>
+          <t>-73,53; 45,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-86,45; 259,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">

--- a/data/trans_bre/IP21B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP21B-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,22 +620,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,82</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-16,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,17 +645,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>47,75%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>95,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,43; -2,93</t>
+          <t>-18,76; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 23,56</t>
+          <t>0,0; 30,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 30,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-70,88; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,56</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,78</t>
+          <t>-9,66</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,19</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,42</t>
+          <t>17,41</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,87%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-21,79%</t>
+          <t>-26,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,07%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>89,63%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 61,45</t>
+          <t>-36,24; 50,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,53; 32,96</t>
+          <t>-42,93; 25,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-53,19; 79,29</t>
+          <t>-52,63; 54,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,5</t>
+          <t>-38,93; 66,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-86,45; 259,4</t>
+          <t>-82,1; 137,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,94; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,73</t>
+          <t>46,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-15,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,6</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-21,36</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>346,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-45,16%</t>
+          <t>-11,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-47,17%</t>
+          <t>-5,55%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,63</t>
+          <t>-25,49; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-44,81; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,58; 23,53</t>
+          <t>-52,34; 54,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-73,53; 45,03</t>
+          <t>-71,16; 65,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-22,58</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>-14,04</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-45,6</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,84%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,34%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 9,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 12,03</t>
+          <t>-61,09; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 22,2</t>
+          <t>-64,89; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 32,45</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-84,34; 201,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,76; 121,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,46; 263,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-96,42; 350,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,5</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-20,82%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-13,84%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,01%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-3,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-14,89; 10,68</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-19,59; 11,9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-19,59; 21,12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-32,13; 30,36</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-86,03; 227,57</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-77,14; 110,41</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-67,74; 194,88</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP21B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP21B-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 0,0</t>
+          <t>-21,86; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,15</t>
+          <t>0,0; 29,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,24; 50,9</t>
+          <t>-32,69; 53,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,93; 25,06</t>
+          <t>-40,91; 23,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-52,63; 54,42</t>
+          <t>-48,3; 55,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,93; 66,62</t>
+          <t>-39,49; 62,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,1; 137,99</t>
+          <t>-82,62; 137,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-76,94; —</t>
+          <t>-69,88; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,49; 100,0</t>
+          <t>-27,48; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-52,34; 54,11</t>
+          <t>-56,35; 49,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-71,16; 65,33</t>
+          <t>-70,17; 65,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 403,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,09; 0,0</t>
+          <t>-61,86; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,89; 0,0</t>
+          <t>-53,88; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 10,68</t>
+          <t>-14,36; 11,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 11,9</t>
+          <t>-18,15; 13,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 21,12</t>
+          <t>-19,1; 21,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 30,36</t>
+          <t>-31,1; 33,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-86,03; 227,57</t>
+          <t>-83,77; 242,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-77,14; 110,41</t>
+          <t>-71,14; 134,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-67,74; 194,88</t>
+          <t>-63,89; 214,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 426,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP21B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP21B-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 0,0</t>
+          <t>-21,72; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,41</t>
+          <t>17,11</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>88,43%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,69; 53,27</t>
+          <t>-35,63; 53,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,91; 23,76</t>
+          <t>-45,27; 21,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,3; 55,41</t>
+          <t>-51,62; 54,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 62,81</t>
+          <t>-35,88; 68,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,62; 137,08</t>
+          <t>-85,62; 112,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-69,88; —</t>
+          <t>-74,8; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,55%</t>
+          <t>-14,04%</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,48; 100,0</t>
+          <t>-25,05; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-56,35; 49,57</t>
+          <t>-54,22; 54,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-70,17; 65,33</t>
+          <t>-71,49; 61,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 403,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-45,6</t>
+          <t>-43,84</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,86; 0,0</t>
+          <t>-57,41; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,88; 0,0</t>
+          <t>-54,27; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,34%</t>
+          <t>-5,24%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 11,38</t>
+          <t>-15,7; 9,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 13,69</t>
+          <t>-16,98; 12,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 21,25</t>
+          <t>-20,88; 22,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 33,76</t>
+          <t>-31,81; 31,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-83,77; 242,47</t>
+          <t>-84,34; 201,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-71,14; 134,08</t>
+          <t>-74,76; 121,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-63,89; 214,07</t>
+          <t>-64,46; 263,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 426,63</t>
+          <t>-94,78; 337,47</t>
         </is>
       </c>
     </row>
